--- a/customers.xlsx
+++ b/customers.xlsx
@@ -457,32 +457,12 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -520,8 +500,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:D40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D41" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D41"/>
   <tableColumns count="4">
     <tableColumn id="1" name="EDRPOU"/>
     <tableColumn id="2" name="Customer"/>
@@ -795,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,12 +1349,15 @@
         <v>111</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>M.Pogribnii@gmail.com</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>digitalpoltava@gmail.com</t>
+  </si>
+  <si>
+    <t>Спецнет</t>
+  </si>
+  <si>
+    <t>ТОВ "СПЕЦНЕТ"</t>
+  </si>
+  <si>
+    <t>specnet@ukr.net</t>
   </si>
 </sst>
 </file>
@@ -459,20 +468,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -500,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D41" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D41" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:D41"/>
   <tableColumns count="4">
     <tableColumn id="1" name="EDRPOU"/>
@@ -778,7 +787,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,14 +1359,25 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="1"/>
+      <c r="A41">
+        <v>44220035</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -1397,11 +1417,12 @@
     <hyperlink ref="D38" r:id="rId35"/>
     <hyperlink ref="D40" r:id="rId36"/>
     <hyperlink ref="D39" r:id="rId37"/>
+    <hyperlink ref="D41" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
   <tableParts count="1">
-    <tablePart r:id="rId39"/>
+    <tablePart r:id="rId40"/>
   </tableParts>
 </worksheet>
 </file>